--- a/Marshall_2023_Period_Estimation_Computations_Section_2.xlsx
+++ b/Marshall_2023_Period_Estimation_Computations_Section_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Documents\Boston_University\Manuscripts\1_Marshall_Francois_Harmonic_Anharmonic_2022\Supplementary_Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FBD61-CDDD-487D-8062-DB45FE51F1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D489B-0A31-4275-920C-B5E92F6D45B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="400" windowWidth="16700" windowHeight="9280" xr2:uid="{B64AB42C-073F-469C-A698-4CCC19F294A9}"/>
+    <workbookView xWindow="6410" yWindow="1170" windowWidth="16700" windowHeight="9280" xr2:uid="{B64AB42C-073F-469C-A698-4CCC19F294A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t xml:space="preserve">frequency </t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>original_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency </t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>frequency </c:v>
+                  <c:v>Frequency </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -998,7 +998,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>frequency </c:v>
+                  <c:v>Frequency </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3290,27 +3290,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719FF9E7-1503-47C5-B503-1668489B3B7D}">
   <dimension ref="B3:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
